--- a/Documentation/SCRUM/CST-247-SprintBurnDown3.xlsx
+++ b/Documentation/SCRUM/CST-247-SprintBurnDown3.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr updateLinks="always"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cst-247\Excel Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Documents\_repositories\Charp\Documentation\SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9492"/>
   </bookViews>
   <sheets>
     <sheet name="Burn Down Chart" sheetId="1" r:id="rId1"/>
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -304,6 +304,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -312,9 +315,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,7 +431,7 @@
                   <c:v>3.2000000000000046</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.4408920985006262E-15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -473,11 +473,38 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -857,33 +884,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13" style="8" customWidth="1"/>
     <col min="3" max="3" width="21" style="8" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -903,7 +930,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="6" t="s">
         <v>13</v>
@@ -953,7 +980,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="7">
         <v>3.1</v>
@@ -970,40 +997,20 @@
       <c r="F4" s="4">
         <v>3</v>
       </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="4">
-        <v>1</v>
-      </c>
-      <c r="M4" s="4">
-        <v>1</v>
-      </c>
-      <c r="N4" s="4">
-        <v>1</v>
-      </c>
-      <c r="O4" s="4">
-        <v>0</v>
-      </c>
-      <c r="P4" s="4">
-        <v>1</v>
-      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="7">
         <v>3.2</v>
@@ -1020,40 +1027,20 @@
       <c r="F5" s="4">
         <v>3</v>
       </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0</v>
-      </c>
-      <c r="L5" s="4">
-        <v>1</v>
-      </c>
-      <c r="M5" s="4">
-        <v>1</v>
-      </c>
-      <c r="N5" s="4">
-        <v>1</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0</v>
-      </c>
-      <c r="P5" s="4">
-        <v>1</v>
-      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="7">
         <v>3.3</v>
@@ -1070,40 +1057,20 @@
       <c r="F6" s="4">
         <v>4</v>
       </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4">
-        <v>2</v>
-      </c>
-      <c r="N6" s="4">
-        <v>2</v>
-      </c>
-      <c r="O6" s="4">
-        <v>2</v>
-      </c>
-      <c r="P6" s="4">
-        <v>1</v>
-      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="7">
         <v>3.4</v>
@@ -1120,40 +1087,20 @@
       <c r="F7" s="4">
         <v>2</v>
       </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0</v>
-      </c>
-      <c r="L7" s="4">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4">
-        <v>0</v>
-      </c>
-      <c r="N7" s="4">
-        <v>1</v>
-      </c>
-      <c r="O7" s="4">
-        <v>1</v>
-      </c>
-      <c r="P7" s="4">
-        <v>1</v>
-      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="7">
         <v>3.5</v>
@@ -1170,40 +1117,20 @@
       <c r="F8" s="4">
         <v>10</v>
       </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0</v>
-      </c>
-      <c r="L8" s="4">
-        <v>0</v>
-      </c>
-      <c r="M8" s="4">
-        <v>5</v>
-      </c>
-      <c r="N8" s="4">
-        <v>5</v>
-      </c>
-      <c r="O8" s="4">
-        <v>5</v>
-      </c>
-      <c r="P8" s="4">
-        <v>1</v>
-      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="7" t="s">
         <v>45</v>
@@ -1220,40 +1147,20 @@
       <c r="F9" s="4">
         <v>10</v>
       </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0</v>
-      </c>
-      <c r="L9" s="4">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4">
-        <v>5</v>
-      </c>
-      <c r="N9" s="4">
-        <v>5</v>
-      </c>
-      <c r="O9" s="4">
-        <v>5</v>
-      </c>
-      <c r="P9" s="4">
-        <v>1</v>
-      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="7"/>
       <c r="C10" s="10"/>
@@ -1263,29 +1170,17 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0</v>
-      </c>
-      <c r="L10" s="4">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4">
-        <v>0</v>
-      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="4">
-        <v>0</v>
-      </c>
-      <c r="P10" s="4">
-        <v>0</v>
-      </c>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="7"/>
       <c r="C11" s="10"/>
@@ -1295,29 +1190,17 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4">
-        <v>0</v>
-      </c>
-      <c r="L11" s="4">
-        <v>0</v>
-      </c>
-      <c r="M11" s="4">
-        <v>0</v>
-      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-      <c r="O11" s="4">
-        <v>0</v>
-      </c>
-      <c r="P11" s="4">
-        <v>0</v>
-      </c>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="7"/>
       <c r="C12" s="10"/>
@@ -1327,29 +1210,17 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0</v>
-      </c>
-      <c r="L12" s="4">
-        <v>0</v>
-      </c>
-      <c r="M12" s="4">
-        <v>0</v>
-      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="4">
-        <v>0</v>
-      </c>
-      <c r="P12" s="4">
-        <v>0</v>
-      </c>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="7"/>
       <c r="C13" s="10"/>
@@ -1359,34 +1230,24 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="4">
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
-        <v>0</v>
-      </c>
-      <c r="L13" s="4">
-        <v>0</v>
-      </c>
-      <c r="M13" s="4">
-        <v>0</v>
-      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="4">
-        <v>0</v>
-      </c>
+      <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="4">
         <f>SUM(F4:F13)</f>
         <v>32</v>
@@ -1428,41 +1289,67 @@
         <v>3.2000000000000046</v>
       </c>
       <c r="P14" s="4">
-        <f t="shared" si="0"/>
-        <v>4.4408920985006262E-15</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="4">
+        <f>SUM(F4:F9)</f>
+        <v>32</v>
+      </c>
+      <c r="G15" s="4">
+        <f>F15-SUM(G4:G13)</f>
+        <v>32</v>
+      </c>
+      <c r="H15" s="4">
+        <f>G15-SUM(H4:H13)</f>
+        <v>32</v>
+      </c>
       <c r="I15" s="4">
-        <f t="shared" ref="G15:P15" si="1">H15 - SUM(I4:I13)</f>
-        <v>0</v>
+        <f>H15-SUM(I4:I13)</f>
+        <v>32</v>
       </c>
       <c r="J15" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
+        <f>I15-SUM(J4:J13)</f>
+        <v>32</v>
+      </c>
+      <c r="K15" s="4">
+        <f>J15-SUM(K4:K13)</f>
+        <v>32</v>
+      </c>
+      <c r="L15" s="4">
+        <f>K15-SUM(L4:L13)</f>
+        <v>32</v>
+      </c>
+      <c r="M15" s="4">
+        <f>L15-SUM(M4:M13)</f>
+        <v>32</v>
+      </c>
+      <c r="N15" s="4">
+        <f>M15-SUM(N4:N13)</f>
+        <v>32</v>
+      </c>
+      <c r="O15" s="4">
+        <f>N15-SUM(O4:O13)</f>
+        <v>32</v>
+      </c>
+      <c r="P15" s="4">
+        <f>O15-SUM(P4:P13)</f>
+        <v>32</v>
+      </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1482,15 +1369,15 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="15"/>
+      <c r="F17" s="12"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1504,7 +1391,7 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1524,7 +1411,7 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1544,7 +1431,7 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1564,7 +1451,7 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1584,7 +1471,7 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1604,7 +1491,7 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1624,7 +1511,7 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1644,7 +1531,7 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1664,7 +1551,7 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1684,7 +1571,7 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1704,7 +1591,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1724,7 +1611,7 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1744,7 +1631,7 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1764,7 +1651,7 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1784,7 +1671,7 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1804,7 +1691,7 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -1824,7 +1711,7 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1844,7 +1731,7 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -1864,7 +1751,7 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -1884,7 +1771,7 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -1920,20 +1807,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
     <col min="2" max="2" width="228" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>16</v>
       </c>
@@ -1941,7 +1828,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
@@ -1949,7 +1836,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>20</v>
       </c>
@@ -1957,7 +1844,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>22</v>
       </c>
@@ -1965,7 +1852,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>24</v>
       </c>
@@ -1973,7 +1860,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>26</v>
       </c>
@@ -1981,7 +1868,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>28</v>
       </c>
@@ -1989,7 +1876,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>30</v>
       </c>
@@ -1997,7 +1884,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>32</v>
       </c>
@@ -2005,63 +1892,63 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
     </row>
-    <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
     </row>
-    <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
     </row>
-    <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
     </row>
-    <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
     </row>
-    <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
     </row>
-    <row r="16" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
     </row>
-    <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
     </row>
-    <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
     </row>
-    <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
     </row>
-    <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
     </row>
-    <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
     </row>
-    <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
     </row>
-    <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
     </row>
-    <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
     </row>
@@ -2071,6 +1958,83 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
+  <xsnLocation/>
+  <cached>True</cached>
+  <openByDefault>False</openByDefault>
+  <xsnScope/>
+</customXsn>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <DocumentBusinessValueTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Normal</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">581d4866-74cc-43f1-bef1-bb304cbfeaa5</TermId>
+        </TermInfo>
+      </Terms>
+    </DocumentBusinessValueTaxHTField0>
+    <DocumentComments xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <DocumentDepartmentTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Academic Program and Course Development</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">59abafec-cbf5-4238-a796-a3b74278f4db</TermId>
+        </TermInfo>
+      </Terms>
+    </DocumentDepartmentTaxHTField0>
+    <DocumentCategoryTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </DocumentCategoryTaxHTField0>
+    <DocumentTypeTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </DocumentTypeTaxHTField0>
+    <TaxKeywordTaxHTField xmlns="30a82cfc-8d0b-455e-b705-4035c60ff9fd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <CourseVersion xmlns="30a82cfc-8d0b-455e-b705-4035c60ff9fd" xsi:nil="true"/>
+    <SecurityClassificationTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Internal</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">98311b30-b9e9-4d4f-9f64-0688c0d4a234</TermId>
+        </TermInfo>
+      </Terms>
+    </SecurityClassificationTaxHTField0>
+    <TaxCatchAll xmlns="30a82cfc-8d0b-455e-b705-4035c60ff9fd">
+      <Value>3</Value>
+      <Value>2</Value>
+      <Value>1</Value>
+    </TaxCatchAll>
+    <DocumentSubjectTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </DocumentSubjectTaxHTField0>
+    <DocumentStatusTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </DocumentStatusTaxHTField0>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Course Development" ma:contentTypeID="0x010100A30BC5E90BED914E81F4B67CDEADBEEF0072B4D5296E9CCD41A4B955E8BC4A98B900B6D41DF35BCF664B888FA24C3105B583" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new Course Development document." ma:contentTypeScope="" ma:versionID="9dd9ed6e3bbe7b4f5b00c4ab3cb49488">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="30a82cfc-8d0b-455e-b705-4035c60ff9fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7f302115a5f8a1b15560b600ae7cd187" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2299,84 +2263,48 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <DocumentBusinessValueTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Normal</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">581d4866-74cc-43f1-bef1-bb304cbfeaa5</TermId>
-        </TermInfo>
-      </Terms>
-    </DocumentBusinessValueTaxHTField0>
-    <DocumentComments xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <DocumentDepartmentTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Academic Program and Course Development</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">59abafec-cbf5-4238-a796-a3b74278f4db</TermId>
-        </TermInfo>
-      </Terms>
-    </DocumentDepartmentTaxHTField0>
-    <DocumentCategoryTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </DocumentCategoryTaxHTField0>
-    <DocumentTypeTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </DocumentTypeTaxHTField0>
-    <TaxKeywordTaxHTField xmlns="30a82cfc-8d0b-455e-b705-4035c60ff9fd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <CourseVersion xmlns="30a82cfc-8d0b-455e-b705-4035c60ff9fd" xsi:nil="true"/>
-    <SecurityClassificationTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Internal</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">98311b30-b9e9-4d4f-9f64-0688c0d4a234</TermId>
-        </TermInfo>
-      </Terms>
-    </SecurityClassificationTaxHTField0>
-    <TaxCatchAll xmlns="30a82cfc-8d0b-455e-b705-4035c60ff9fd">
-      <Value>3</Value>
-      <Value>2</Value>
-      <Value>1</Value>
-    </TaxCatchAll>
-    <DocumentSubjectTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </DocumentSubjectTaxHTField0>
-    <DocumentStatusTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </DocumentStatusTaxHTField0>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D14C1044-F523-4937-BF47-727729F19EA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B20B8EA-C8C4-49B1-8280-945BA6550F81}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
-  <xsnLocation/>
-  <cached>True</cached>
-  <openByDefault>False</openByDefault>
-  <xsnScope/>
-</customXsn>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D6E300D-687F-49DD-9C99-AC5EA1BE3BF7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90C1BE12-9AF4-4D82-8933-6D42A4A8E2C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="30a82cfc-8d0b-455e-b705-4035c60ff9fd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26BAEAB1-84F8-4623-9116-5B777FA60CDF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2393,45 +2321,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90C1BE12-9AF4-4D82-8933-6D42A4A8E2C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="30a82cfc-8d0b-455e-b705-4035c60ff9fd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D6E300D-687F-49DD-9C99-AC5EA1BE3BF7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B20B8EA-C8C4-49B1-8280-945BA6550F81}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D14C1044-F523-4937-BF47-727729F19EA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentation/SCRUM/CST-247-SprintBurnDown3.xlsx
+++ b/Documentation/SCRUM/CST-247-SprintBurnDown3.xlsx
@@ -887,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -997,12 +997,24 @@
       <c r="F4" s="4">
         <v>3</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>

--- a/Documentation/SCRUM/CST-247-SprintBurnDown3.xlsx
+++ b/Documentation/SCRUM/CST-247-SprintBurnDown3.xlsx
@@ -887,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Documentation/SCRUM/CST-247-SprintBurnDown3.xlsx
+++ b/Documentation/SCRUM/CST-247-SprintBurnDown3.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr updateLinks="always"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Documents\_repositories\Charp\Documentation\SCRUM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mick Torres\Documents\GitHub\Charp\Documentation\SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9492"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burn Down Chart" sheetId="1" r:id="rId1"/>
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -430,9 +430,6 @@
                 <c:pt idx="9">
                   <c:v>3.2000000000000046</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -483,28 +480,28 @@
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -884,22 +881,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" style="8" customWidth="1"/>
     <col min="3" max="3" width="21" style="8" customWidth="1"/>
-    <col min="4" max="4" width="20.88671875" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>48</v>
       </c>
@@ -910,7 +907,7 @@
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -930,7 +927,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="6" t="s">
         <v>13</v>
@@ -980,7 +977,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="7">
         <v>3.1</v>
@@ -1015,14 +1012,20 @@
       <c r="L4" s="4">
         <v>0</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <v>2</v>
+      </c>
+      <c r="O4" s="4">
+        <v>2</v>
+      </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="7">
         <v>3.2</v>
@@ -1039,20 +1042,28 @@
       <c r="F5" s="4">
         <v>3</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="I5" s="4">
+        <v>1</v>
+      </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
+      <c r="N5" s="4">
+        <v>1</v>
+      </c>
+      <c r="O5" s="4">
+        <v>2</v>
+      </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="7">
         <v>3.3</v>
@@ -1069,20 +1080,28 @@
       <c r="F6" s="4">
         <v>4</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="J6" s="4">
+        <v>1</v>
+      </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
+      <c r="N6" s="4">
+        <v>1</v>
+      </c>
+      <c r="O6" s="4">
+        <v>2</v>
+      </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="7">
         <v>3.4</v>
@@ -1099,20 +1118,26 @@
       <c r="F7" s="4">
         <v>2</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="K7" s="4">
+        <v>1</v>
+      </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
+      <c r="O7" s="4">
+        <v>1</v>
+      </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="7">
         <v>3.5</v>
@@ -1136,13 +1161,17 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
+      <c r="N8" s="4">
+        <v>3</v>
+      </c>
+      <c r="O8" s="4">
+        <v>4</v>
+      </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="7" t="s">
         <v>45</v>
@@ -1166,13 +1195,19 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
+      <c r="N9" s="4">
+        <v>2</v>
+      </c>
+      <c r="O9" s="4">
+        <v>5</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="7"/>
       <c r="C10" s="10"/>
@@ -1192,7 +1227,7 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="7"/>
       <c r="C11" s="10"/>
@@ -1212,7 +1247,7 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="7"/>
       <c r="C12" s="10"/>
@@ -1232,7 +1267,7 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="7"/>
       <c r="C13" s="10"/>
@@ -1252,7 +1287,7 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="13" t="s">
         <v>10</v>
@@ -1269,7 +1304,7 @@
         <v>28.8</v>
       </c>
       <c r="H14" s="4">
-        <f t="shared" ref="H14:P14" si="0">G14-$F$14/10</f>
+        <f t="shared" ref="H14:O14" si="0">G14-$F$14/10</f>
         <v>25.6</v>
       </c>
       <c r="I14" s="4">
@@ -1300,13 +1335,11 @@
         <f t="shared" si="0"/>
         <v>3.2000000000000046</v>
       </c>
-      <c r="P14" s="4">
-        <v>0</v>
-      </c>
+      <c r="P14" s="4"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="13" t="s">
         <v>11</v>
@@ -1319,49 +1352,48 @@
         <v>32</v>
       </c>
       <c r="G15" s="4">
-        <f>F15-SUM(G4:G13)</f>
+        <f t="shared" ref="G15:P15" si="1">F15-SUM(G4:G13)</f>
         <v>32</v>
       </c>
       <c r="H15" s="4">
-        <f>G15-SUM(H4:H13)</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="I15" s="4">
-        <f>H15-SUM(I4:I13)</f>
-        <v>32</v>
+        <f t="shared" si="1"/>
+        <v>31</v>
       </c>
       <c r="J15" s="4">
-        <f>I15-SUM(J4:J13)</f>
-        <v>32</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="K15" s="4">
-        <f>J15-SUM(K4:K13)</f>
-        <v>32</v>
+        <f t="shared" si="1"/>
+        <v>29</v>
       </c>
       <c r="L15" s="4">
-        <f>K15-SUM(L4:L13)</f>
-        <v>32</v>
+        <f t="shared" si="1"/>
+        <v>29</v>
       </c>
       <c r="M15" s="4">
-        <f>L15-SUM(M4:M13)</f>
-        <v>32</v>
+        <f t="shared" si="1"/>
+        <v>29</v>
       </c>
       <c r="N15" s="4">
-        <f>M15-SUM(N4:N13)</f>
-        <v>32</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="O15" s="4">
-        <f>N15-SUM(O4:O13)</f>
-        <v>32</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="P15" s="4">
-        <f>O15-SUM(P4:P13)</f>
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1381,7 +1413,7 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1403,7 +1435,7 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1423,7 +1455,7 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1443,7 +1475,7 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1463,7 +1495,7 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1483,7 +1515,7 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1503,7 +1535,7 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1523,7 +1555,7 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1543,7 +1575,7 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1563,7 +1595,7 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1583,7 +1615,7 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1603,7 +1635,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1623,7 +1655,7 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1643,7 +1675,7 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1663,7 +1695,7 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1683,7 +1715,7 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1703,7 +1735,7 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -1723,7 +1755,7 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1743,7 +1775,7 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -1763,7 +1795,7 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -1783,7 +1815,7 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -1819,20 +1851,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="228" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>16</v>
       </c>
@@ -1840,7 +1872,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
@@ -1848,7 +1880,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>20</v>
       </c>
@@ -1856,7 +1888,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>22</v>
       </c>
@@ -1864,7 +1896,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>24</v>
       </c>
@@ -1872,7 +1904,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>26</v>
       </c>
@@ -1880,7 +1912,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>28</v>
       </c>
@@ -1888,7 +1920,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>30</v>
       </c>
@@ -1896,7 +1928,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>32</v>
       </c>
@@ -1904,63 +1936,63 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
     </row>
-    <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
     </row>
-    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
     </row>
-    <row r="13" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
     </row>
-    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
     </row>
-    <row r="15" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
     </row>
-    <row r="16" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
     </row>
-    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
     </row>
-    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
     </row>
-    <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
     </row>
-    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
     </row>
-    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
     </row>
-    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
     </row>
-    <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
     </row>
-    <row r="24" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
     </row>
@@ -1970,11 +2002,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
   <xsnLocation/>
@@ -1984,69 +2011,12 @@
 </customXsn>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <DocumentBusinessValueTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Normal</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">581d4866-74cc-43f1-bef1-bb304cbfeaa5</TermId>
-        </TermInfo>
-      </Terms>
-    </DocumentBusinessValueTaxHTField0>
-    <DocumentComments xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <DocumentDepartmentTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Academic Program and Course Development</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">59abafec-cbf5-4238-a796-a3b74278f4db</TermId>
-        </TermInfo>
-      </Terms>
-    </DocumentDepartmentTaxHTField0>
-    <DocumentCategoryTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </DocumentCategoryTaxHTField0>
-    <DocumentTypeTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </DocumentTypeTaxHTField0>
-    <TaxKeywordTaxHTField xmlns="30a82cfc-8d0b-455e-b705-4035c60ff9fd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <CourseVersion xmlns="30a82cfc-8d0b-455e-b705-4035c60ff9fd" xsi:nil="true"/>
-    <SecurityClassificationTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Internal</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">98311b30-b9e9-4d4f-9f64-0688c0d4a234</TermId>
-        </TermInfo>
-      </Terms>
-    </SecurityClassificationTaxHTField0>
-    <TaxCatchAll xmlns="30a82cfc-8d0b-455e-b705-4035c60ff9fd">
-      <Value>3</Value>
-      <Value>2</Value>
-      <Value>1</Value>
-    </TaxCatchAll>
-    <DocumentSubjectTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </DocumentSubjectTaxHTField0>
-    <DocumentStatusTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </DocumentStatusTaxHTField0>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Course Development" ma:contentTypeID="0x010100A30BC5E90BED914E81F4B67CDEADBEEF0072B4D5296E9CCD41A4B955E8BC4A98B900B6D41DF35BCF664B888FA24C3105B583" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new Course Development document." ma:contentTypeScope="" ma:versionID="9dd9ed6e3bbe7b4f5b00c4ab3cb49488">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="30a82cfc-8d0b-455e-b705-4035c60ff9fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7f302115a5f8a1b15560b600ae7cd187" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2275,7 +2245,77 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <DocumentBusinessValueTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Normal</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">581d4866-74cc-43f1-bef1-bb304cbfeaa5</TermId>
+        </TermInfo>
+      </Terms>
+    </DocumentBusinessValueTaxHTField0>
+    <DocumentComments xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <DocumentDepartmentTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Academic Program and Course Development</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">59abafec-cbf5-4238-a796-a3b74278f4db</TermId>
+        </TermInfo>
+      </Terms>
+    </DocumentDepartmentTaxHTField0>
+    <DocumentCategoryTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </DocumentCategoryTaxHTField0>
+    <DocumentTypeTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </DocumentTypeTaxHTField0>
+    <TaxKeywordTaxHTField xmlns="30a82cfc-8d0b-455e-b705-4035c60ff9fd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <CourseVersion xmlns="30a82cfc-8d0b-455e-b705-4035c60ff9fd" xsi:nil="true"/>
+    <SecurityClassificationTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Internal</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">98311b30-b9e9-4d4f-9f64-0688c0d4a234</TermId>
+        </TermInfo>
+      </Terms>
+    </SecurityClassificationTaxHTField0>
+    <TaxCatchAll xmlns="30a82cfc-8d0b-455e-b705-4035c60ff9fd">
+      <Value>3</Value>
+      <Value>2</Value>
+      <Value>1</Value>
+    </TaxCatchAll>
+    <DocumentSubjectTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </DocumentSubjectTaxHTField0>
+    <DocumentStatusTaxHTField0 xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </DocumentStatusTaxHTField0>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B20B8EA-C8C4-49B1-8280-945BA6550F81}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D14C1044-F523-4937-BF47-727729F19EA1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
@@ -2283,18 +2323,21 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B20B8EA-C8C4-49B1-8280-945BA6550F81}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26BAEAB1-84F8-4623-9116-5B777FA60CDF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D6E300D-687F-49DD-9C99-AC5EA1BE3BF7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="30a82cfc-8d0b-455e-b705-4035c60ff9fd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2317,20 +2360,9 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26BAEAB1-84F8-4623-9116-5B777FA60CDF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D6E300D-687F-49DD-9C99-AC5EA1BE3BF7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="30a82cfc-8d0b-455e-b705-4035c60ff9fd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>